--- a/prix/diessner.xlsx
+++ b/prix/diessner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\peinture\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCFDD31-3228-40E3-B6A4-F4F8C44F070B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A202DF-C2B9-4F3F-AB58-8B8C74846166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
   <si>
     <t>path</t>
   </si>
@@ -234,6 +234,18 @@
   </si>
   <si>
     <t>Ajouter 4,50</t>
+  </si>
+  <si>
+    <t>12,5l + Teinte</t>
+  </si>
+  <si>
+    <t>5l + Teinte</t>
+  </si>
+  <si>
+    <t>2,5l + Teinte</t>
+  </si>
+  <si>
+    <t>1l + Teinte</t>
   </si>
 </sst>
 </file>
@@ -668,7 +680,7 @@
   <dimension ref="A1:G450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -851,7 +863,7 @@
         <v>57</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D9" s="3">
         <v>15.87</v>
@@ -910,7 +922,7 @@
         <v>56</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D12" s="3">
         <v>32.520000000000003</v>
@@ -969,7 +981,7 @@
         <v>55</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="D15" s="3">
         <v>61.21</v>
@@ -1028,7 +1040,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D18" s="3">
         <v>21.05</v>
@@ -1051,7 +1063,7 @@
         <v>47</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D19" s="3">
         <v>38.200000000000003</v>
@@ -1117,7 +1129,7 @@
         <v>60</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D22" s="12">
         <v>242.21</v>
@@ -1160,7 +1172,7 @@
         <v>61</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="D24" s="12">
         <v>96.99</v>
